--- a/SAE_3_01/fichiers genere/S4BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFI.xlsx
@@ -5094,10 +5094,26 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -5114,10 +5130,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -5134,9 +5162,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -5154,9 +5194,21 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -5174,10 +5226,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -5194,10 +5254,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -6885,10 +6953,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -6905,10 +6981,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -8676,9 +8760,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8696,9 +8788,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -8716,10 +8816,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -10467,9 +10579,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -10487,9 +10611,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -10507,10 +10639,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -12258,9 +12402,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -12278,9 +12434,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -12298,9 +12462,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12318,9 +12490,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -12338,9 +12518,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -12358,10 +12546,22 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -14049,10 +14249,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -14069,9 +14281,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -14089,10 +14313,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -14109,10 +14345,22 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -14129,10 +14377,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -15840,8 +16096,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -15860,10 +16124,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -15880,10 +16156,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -15900,9 +16184,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -15920,9 +16212,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -17631,10 +17931,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -17651,10 +17959,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S4BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFI.xlsx
@@ -9,16 +9,16 @@
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="R4.01 Architecture logicielle" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="R4.02 Qualité de développement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R4.03 Qualité et au-delà du relationnel" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R4.03 Qualité et au-delà du rel" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="R4.04 Méthodes d'optimisation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R4.05 Communicaton professionnelle en anglais" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R4.06 Communication dans les organisations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R4.05 Communicaton professionne" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R4.06 Communication dans les or" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="R4.07 PPP" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="R4.B.08 Virtualisation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R4.B.09 Management avancé des systèmes d'information" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R4.B.10 Cryptographie et sécurité" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R4.B.09 Management avancé des s" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R4.B.10 Cryptographie et sécuri" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="R4.B.11 Réseau avancé" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R4.B.12 Sécurité système et réseau" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R4.B.12 Sécurité système et rés" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="R4.B.L1 Introduction IA-1" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
@@ -3275,21 +3275,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3307,17 +3295,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3335,17 +3315,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3363,17 +3335,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3391,17 +3355,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -3419,22 +3375,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -5090,22 +5034,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5122,21 +5054,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5154,22 +5074,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5186,22 +5094,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5218,18 +5114,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -6905,16 +6793,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6933,22 +6813,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -6965,18 +6833,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -6993,17 +6853,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -7021,17 +6873,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -8708,18 +8552,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8736,22 +8572,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12246,26 +12070,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12282,22 +12090,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12314,21 +12110,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -12346,21 +12130,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -12378,18 +12150,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -12406,18 +12170,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -14073,18 +13829,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -14101,18 +13849,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15848,17 +15588,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15876,17 +15608,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -15904,17 +15628,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -15932,18 +15648,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -15960,18 +15668,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -17647,17 +17347,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -17675,17 +17367,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17703,22 +17387,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19434,18 +19106,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -19462,18 +19126,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19490,18 +19146,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19518,18 +19166,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19546,18 +19186,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -21233,17 +20865,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21261,17 +20885,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -21289,17 +20905,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -23016,17 +22624,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -23044,17 +22644,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24791,21 +24383,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24823,17 +24403,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24851,22 +24423,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFI.xlsx
@@ -3275,9 +3275,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3295,9 +3307,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3315,9 +3335,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3335,9 +3363,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3355,9 +3391,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -3375,10 +3419,22 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -5034,10 +5090,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5054,9 +5122,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5074,10 +5154,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5094,10 +5186,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5114,10 +5218,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -6793,8 +6905,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6813,10 +6933,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -6833,10 +6965,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -6853,9 +6993,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -6873,9 +7021,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -8552,10 +8708,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8572,10 +8736,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12070,10 +12246,26 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12090,10 +12282,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12110,9 +12314,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -12130,9 +12346,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -12150,10 +12378,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -12170,10 +12406,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -13829,10 +14073,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -13849,10 +14101,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15588,9 +15848,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15608,9 +15876,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -15628,9 +15904,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -15648,10 +15932,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -15668,10 +15960,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -17347,9 +17647,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -17367,9 +17675,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17387,10 +17703,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19106,10 +19434,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -19126,10 +19462,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19146,10 +19490,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19166,10 +19518,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19186,10 +19546,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -20865,9 +21233,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -20885,9 +21261,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -20905,9 +21289,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -22624,9 +23016,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -22644,9 +23044,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24383,9 +24791,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24403,9 +24823,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24423,10 +24851,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFI.xlsx
@@ -7,19 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R4.01 Architecture logicielle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R4.02 Qualité de développement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R4.03 Qualité et au-delà du rel" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R4.04 Méthodes d'optimisation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R4.05 Communicaton professionne" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R4.06 Communication dans les or" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R4.07 PPP" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R4.B.08 Virtualisation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R4.B.09 Management avancé des s" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R4.B.10 Cryptographie et sécuri" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R4.B.11 Réseau avancé" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R4.B.12 Sécurité système et rés" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R4.B.L1 Introduction IA-1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R4.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R4.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R4.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R4.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R4.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R4.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R4.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R4.B.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R4.B.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R4.B.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R4.B.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R4.B.12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R4.B.L1" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -5092,20 +5092,16 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5124,20 +5120,20 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
           <t>TD 4H</t>
         </is>
       </c>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5156,20 +5152,20 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="n"/>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
           <t>TD 4H</t>
         </is>
       </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5188,7 +5184,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -5220,11 +5216,15 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="inlineStr">
         <is>
           <t>TP 2H</t>
@@ -5246,10 +5246,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -6912,7 +6920,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 4H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -8738,20 +8746,20 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="n"/>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8768,9 +8776,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8788,10 +8808,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -10487,9 +10519,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 6H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -10507,9 +10551,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 6H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -10527,9 +10583,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 6H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -11509,7 +11573,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -12287,7 +12351,11 @@
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -14129,10 +14197,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15850,13 +15926,13 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -15878,13 +15954,13 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -15906,7 +15982,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -15934,16 +16010,16 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -15962,14 +16038,14 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -15988,10 +16064,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -17711,7 +17795,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="inlineStr">
@@ -19464,7 +19548,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -19492,7 +19576,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -19520,7 +19604,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -19548,7 +19632,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -19574,10 +19658,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -19594,10 +19686,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4BFI.xlsx
@@ -10595,7 +10595,11 @@
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -11573,7 +11577,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -12398,7 +12402,11 @@
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -16076,7 +16084,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E40" s="27" t="n"/>
+      <c r="E40" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
@@ -24967,7 +24979,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
